--- a/output/fit_clients/fit_round_87.xlsx
+++ b/output/fit_clients/fit_round_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9783120296.833065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003546732951962278</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.788517415230844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9551744425786449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.788517415230844</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5400841936.600759</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004460057184221228</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.323104398419217</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9081614599826106</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.323104398419217</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4665936299.557763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003444909174934433</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.640930271535169</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9513966092938101</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.640930271535169</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4215809455.061885</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003472291471429247</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6608339050201579</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.417332742947834</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9359904690326738</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.417332742947834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7431433913.191642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002134295428883287</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.24568742678599</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8789353821376407</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.24568742678599</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8035096495.782748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001291094442988709</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.434882821620178</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.927497376279297</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.434882821620178</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6238423688.667077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002867856331554973</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.154313229494922</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9704555834469688</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.154313229494922</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4769678568.656005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.0052086681886694</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.737272512199131</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9077060914315793</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.737272512199131</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3368348440.113927</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004458068534710523</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.436802366652718</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.949703558593594</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.436802366652718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4024938260.910398</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009549999209157682</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.293892472722113</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7943046138391056</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.293892472722113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9052239111.213116</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001838735142139934</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.696627550684421</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-0.4288450139351179</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.696627550684421</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6480100176.080394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003365782809548892</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.317118811416661</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.033739432676257</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.317118811416661</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6150633808.292376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003426786978982276</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.674627949085199</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9007570200808636</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.674627949085199</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7962455044.607349</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004988410910032628</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.129826868332835</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.002627611026918</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.129826868332835</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5328210817.310937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004964018315716231</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>13</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.938228319642691</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9315042071468967</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.938228319642691</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5687471507.027161</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002685357949935669</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.788455539634911</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9536170898912859</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.788455539634911</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6473231304.682719</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001117990882308904</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7508826482703641</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.5565477077368</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.094054873474763</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.5565477077368</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4018532023.623032</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001469417240920581</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.472007452051313</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9161924742677173</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.472007452051313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4351778604.947524</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001244573052212311</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5251850528778526</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.62095080227423</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.7852113785171848</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.62095080227423</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6256284048.577825</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005381474416235276</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.770191037971757</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8849829206664114</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.770191037971757</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4712723134.670081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004258273578212067</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.452560832016476</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8047322573665312</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.452560832016476</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8978432436.583349</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001527828952541577</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.137908433162705</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8688163399169898</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.137908433162705</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8187301361.596199</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003480819737518316</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.71132220956358</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9926576856817153</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.71132220956358</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5789229317.108268</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003859390949797647</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8410063060982422</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.929564130856646</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.188585084215387</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.929564130856646</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5587762894.842793</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0008716418525047371</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.128217863142607</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8220103077595853</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.128217863142607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6905812716.573344</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003761855897062283</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.55612719389523</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.942560248662485</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.55612719389523</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>9021682266.799625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004903451309547361</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.710565295641619</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9190819235439474</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.710565295641619</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7752536320.667943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001246557875000333</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.120183371561083</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.788987894920556</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.2686467197913987</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.788987894920556</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5668615285.758789</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.004120776396163647</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.166722632674094</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8748283822520699</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.166722632674094</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5767610118.173597</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003286612725175782</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.478312485514809</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9687006154959242</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.478312485514809</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4788487824.592445</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001368174000686696</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.635850265834965</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9195650985644924</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.635850265834965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5955605658.361398</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002773834468843479</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.072981787670315</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8660077341368423</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.072981787670315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6012806005.565338</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004352817933618666</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4558559020922893</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.67917458269486</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.6521662136468634</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.67917458269486</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7009503641.401573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002561062551004304</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.598282836857409</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9364758773305658</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.598282836857409</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5014729376.56105</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003738299413613715</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.600967309619813</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.021630526963382</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.600967309619813</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6468265782.669784</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005704237525614072</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.52211415978122</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.010286557635714</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.52211415978122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4342261604.880685</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004550421345410614</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.450254254589159</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9133612189589738</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.450254254589159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4828163681.247424</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002394097861674864</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.063722942994156</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8809041164006359</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.063722942994156</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4606748840.362251</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003740994681088597</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.656209051780753</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9831324029935583</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.656209051780753</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5890119459.148879</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001046382175432507</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.999887354404366</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.946503316046</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.999887354404366</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5397856591.82644</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00390415335509555</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.1963060966418638</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.363682883320107</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.4462541407005735</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.363682883320107</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5382209166.452277</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003770195217277822</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.651721893553123</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.290653583516215</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.651721893553123</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5030470603.884831</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001539830951561653</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.368145735096975</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9285540682378903</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.368145735096975</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5304016986.589691</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001123238686363743</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2423754245104775</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.887172516113576</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.5431392190768833</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.887172516113576</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11413486398.94667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003582274738286197</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.373887395503046</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8137468397581386</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.373887395503046</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9357467800.002024</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003329632760390951</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7402861623548613</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.449232033972514</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.063186501579965</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.449232033972514</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6061842926.618799</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002611621044112932</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.026924812404773</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9574503957836419</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.026924812404773</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5538258982.728907</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003678619249129049</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>21</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8494767533876871</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.428695175519504</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.124375521227017</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.428695175519504</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7613279045.042051</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003611638329883199</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.318612015141322</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.024776195841962</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.318612015141322</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3893031373.578568</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004189062395446677</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.416534524041523</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9540505453635446</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.416534524041523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8101999061.225151</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001464180753886949</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.536989450924322</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8611093447820058</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.536989450924322</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4550858100.467399</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002901395593403721</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>17</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9369272059460195</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.547125338118914</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.245737966161405</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.547125338118914</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4857996230.036641</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005366707740454081</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8281971253351096</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.268784572496502</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.080516512211926</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.268784572496502</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8574303462.114467</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002899129282678946</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.339850935402844</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9024056021810024</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.339850935402844</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6085677335.463866</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002707535297972544</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>17</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.567784116354141</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9122195146938069</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.567784116354141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7469293904.290609</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003175108276942112</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>17</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.489566333349699</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8321647260110294</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.489566333349699</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5028767637.649724</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002182049193331693</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.256910302284242</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8358764572651478</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.256910302284242</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7343270968.685945</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003063888086453588</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>18</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6594848072503564</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.428226048842122</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9820409657100515</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.428226048842122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5852002743.94225</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003677684088249008</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.226838681592665</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8226626479830491</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.226838681592665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5819090226.296517</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004629442297877389</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.792012514038892</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.925694185657821</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.792012514038892</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5264639607.059422</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004053256577192307</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>18</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7139134764461204</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.047173899498394</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.010668246200119</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.047173899498394</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6698508665.69021</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005026788340735133</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>24</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.122301580553839</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.890713275456035</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.122301580553839</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3830393175.639174</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.00384140575614037</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.643219542151036</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8995993196501093</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.643219542151036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6032899465.533237</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.003951780733986697</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.698579470620441</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9862449711263832</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.698579470620441</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6083799959.620549</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.0038467645631723</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.640659400351983</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9162260361077568</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.640659400351983</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6621150289.519337</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004589989103370445</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.859602071973525</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8885432398810064</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.859602071973525</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5926880012.734508</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001983233224382195</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.215520796562658</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7300403920299571</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.215520796562658</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4639326285.412545</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001121461278441558</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.051774513131437</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9895652882386218</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.051774513131437</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8173280906.841785</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003784522787609081</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6350971888632734</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.588216022279028</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9628693920125679</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.588216022279028</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4525814893.725974</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003282914757178939</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.63686672228122</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8028831449367539</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.63686672228122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5764004579.025092</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001912438068517837</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.528983267760311</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.057208534992337</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.528983267760311</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7660020604.798573</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009272697038891347</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.850605544728396</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9698709469733547</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.850605544728396</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6495566903.981482</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004456036176543134</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.402053116857865</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8707020103422912</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.402053116857865</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7332744721.707417</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003081833361651449</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.615184228874452</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8796503795870869</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.615184228874452</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>4830131016.022762</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.003024083985070732</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.494245552624287</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9302856102356732</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.494245552624287</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6749895001.455797</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005593719834835041</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.142819041178308</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.000577372875501</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.142819041178308</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7252994792.065786</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003167392056343704</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.641023383428637</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9353623872660453</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.641023383428637</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7182001627.824809</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002144682582195917</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2969548918202557</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.606916504444112</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.6290138117261314</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.606916504444112</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6882495860.94232</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002494729269016676</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.593800026226201</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9643558937887924</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.593800026226201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6949742493.363112</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004803767068042383</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>9</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.337554760604646</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.995386965906868</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.337554760604646</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6367802757.933347</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004181437644361613</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.427873907934802</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8919514622766743</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.427873907934802</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8302575983.728109</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002322201243685754</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.132721262663163</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8320538643658955</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.132721262663163</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7188761890.912705</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004513071051547177</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.378273631885155</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9622241124613723</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.378273631885155</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4127296148.855245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003835912551340987</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.188589191865302</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9058295598183913</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.188589191865302</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8105644664.142788</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001988792592985359</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.668647018513146</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9889297625981942</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.668647018513146</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3262005537.07056</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001416638593541877</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.10523199774182</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9653722414288374</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.10523199774182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7770112759.304073</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004517717414508461</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.537755442628127</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8562547579025908</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.537755442628127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7906201632.303296</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004529421885460158</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.877049040054851</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9650076031925585</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.877049040054851</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6096277572.813412</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002888247189667759</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.00622896561179349</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.533807890857084</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.4145803259442106</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.533807890857084</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5441384264.328844</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00305802138758011</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.736500506797098</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8196208860141952</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.736500506797098</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4550881809.061035</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003442139479000343</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.942830992352973</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.062183718423793</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.942830992352973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7321986361.891273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001763067477397541</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>17</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.549354543357144</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9359028702267019</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.549354543357144</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5344060110.904085</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.00103319812993796</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.73651089416027</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.00881428762519</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.73651089416027</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6553723620.623193</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002718996848296519</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.70552942017562</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9298080061490527</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.70552942017562</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6075347761.09615</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002127947790301169</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.253446417085675</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9200814410407036</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.253446417085675</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5290353544.747536</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004332289215143896</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.745487467206245</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8990028084447041</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.745487467206245</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7313085720.701244</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003626970806186908</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.348767768198093</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8629049565088017</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.348767768198093</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2940299180.818009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005324883391347414</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.8066083607457587</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.296619801496805</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.114633498015512</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.296619801496805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4814698606.084537</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002404596923674473</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.615569244559948</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8359500287002779</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.615569244559948</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7050177209.09843</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001597416913298004</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5632901822416783</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.633452884823913</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8849134258205096</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.633452884823913</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_87.xlsx
+++ b/output/fit_clients/fit_round_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9783120296.833065</v>
+        <v>1585354820.642867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003546732951962278</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
+        <v>0.08678996835959606</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03657332073461138</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>792677350.1164134</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1712838542.800821</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1319926056544222</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03298318048750495</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5400841936.600759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004460057184221228</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+      <c r="J3" t="n">
+        <v>856419266.9071567</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4665936299.557763</v>
+        <v>4895297559.220778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003444909174934433</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+        <v>0.128992621307948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02412931410722082</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2447648857.135062</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4215809455.061885</v>
+        <v>4189745385.631428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003472291471429247</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1084639211796614</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04922107924657144</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2094872683.921484</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7431433913.191642</v>
+        <v>2295626915.752029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002134295428883287</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>19</v>
+        <v>0.1296630127414047</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04277465105368165</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1147813455.380363</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8035096495.782748</v>
+        <v>2619698850.060148</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001291094442988709</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>28</v>
+        <v>0.08892242342140788</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03074334567658655</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1309849426.437849</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6238423688.667077</v>
+        <v>3499110397.048507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002867856331554973</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>22</v>
+        <v>0.2118851523518553</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02369092093555014</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1749555306.984736</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4769678568.656005</v>
+        <v>1391481124.532571</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0052086681886694</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27</v>
+        <v>0.1196487629320231</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03367157481069723</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>695740673.2443879</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3368348440.113927</v>
+        <v>4569613115.675387</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004458068534710523</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1437342679000487</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0373107037736496</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2284806623.757441</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4024938260.910398</v>
+        <v>3489607702.385574</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009549999209157682</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1364529282688168</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0498475263516117</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1744803828.201324</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9052239111.213116</v>
+        <v>2094114878.330717</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001838735142139934</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25</v>
+        <v>0.1715614171160282</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04746237685386472</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1047057374.149261</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6480100176.080394</v>
+        <v>3745535439.588272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003365782809548892</v>
-      </c>
-      <c r="G13" t="b">
+        <v>0.08379821031017876</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02699881530938244</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>18</v>
+      <c r="I13" t="n">
+        <v>29</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1872767787.567739</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6150633808.292376</v>
+        <v>2957713075.833531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003426786978982276</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20</v>
+        <v>0.1884157075387449</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04135959416303608</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1478856575.335154</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7962455044.607349</v>
+        <v>1470139677.926424</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004988410910032628</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>24</v>
+        <v>0.08309001658559584</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04158553031246703</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>735069917.6093997</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5328210817.310937</v>
+        <v>2340039787.746271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004964018315716231</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>28</v>
+        <v>0.1158900623204758</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0489334886750432</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1170019938.898005</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5687471507.027161</v>
+        <v>4442138329.354568</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002685357949935669</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1260235745600937</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03393315866333645</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2221069177.294751</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6473231304.682719</v>
+        <v>3952048616.944218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001117990882308904</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25</v>
+        <v>0.1634099303948323</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03418284763708596</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1976024269.703628</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4018532023.623032</v>
+        <v>1112338947.788327</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001469417240920581</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1245930056891153</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02199622778603811</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>556169530.3873483</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4351778604.947524</v>
+        <v>2128433462.602797</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001244573052212311</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1156253479212731</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02052720313820768</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1064216743.88922</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6256284048.577825</v>
+        <v>2133068467.54774</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005381474416235276</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>16</v>
+        <v>0.07657689182446399</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03487402204160057</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1066534256.915934</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4712723134.670081</v>
+        <v>2780432554.365411</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004258273578212067</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.1360677333112693</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04690384931961771</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1390216351.785426</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8978432436.583349</v>
+        <v>1050711652.638652</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001527828952541577</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1562694908021338</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05306065641333874</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>525355887.8735769</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>476</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3230397754.080103</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.141268387716263</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02988491024365062</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="n">
-        <v>513</v>
-      </c>
-      <c r="E24" t="n">
-        <v>8187301361.596199</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.003480819737518316</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1615198896.713816</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5789229317.108268</v>
+        <v>1354697828.568576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003859390949797647</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19</v>
+        <v>0.09732629132772894</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02219909809718253</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>677348896.5869057</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5587762894.842793</v>
+        <v>879541312.0759966</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008716418525047371</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1117018845825659</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03413443911709435</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>439770598.5667794</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6905812716.573344</v>
+        <v>4049490800.357414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003761855897062283</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1400096032677843</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02261900518800164</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2024745407.791731</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3085832611.992239</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1329800586523825</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04675925681337705</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9021682266.799625</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004903451309547361</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>22</v>
+      <c r="I28" t="n">
+        <v>28</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1542916324.574719</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7752536320.667943</v>
+        <v>4431099252.215055</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001246557875000333</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>22</v>
+        <v>0.135435336175013</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03492321266810357</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2215549612.991834</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5668615285.758789</v>
+        <v>1523129302.169603</v>
       </c>
       <c r="F30" t="n">
-        <v>0.004120776396163647</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>28</v>
+        <v>0.09595161179890681</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03387642012991247</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>761564634.1862832</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5767610118.173597</v>
+        <v>1084280343.830713</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003286612725175782</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17</v>
+        <v>0.08776632478319804</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03670404494020363</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>542140150.5342299</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4788487824.592445</v>
+        <v>1666741194.718738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001368174000686696</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09884143949517607</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03847503550402348</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>833370700.1442851</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5955605658.361398</v>
+        <v>2403476802.083826</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002773834468843479</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.170558081053463</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05900318166808129</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1201738447.393698</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6012806005.565338</v>
+        <v>1517066698.644623</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004352817933618666</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>27</v>
+        <v>0.1173076085818393</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02767249292096681</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>758533302.3005335</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7009503641.401573</v>
+        <v>1229877973.009263</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002561062551004304</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>22</v>
+        <v>0.1110068195336752</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03717962031876261</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>614938954.5935714</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5014729376.56105</v>
+        <v>3121854473.712389</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003738299413613715</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.1516312672749941</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0287471682363893</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1560927208.928993</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6468265782.669784</v>
+        <v>2808192878.788124</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005704237525614072</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.0942887672955333</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0340754561918938</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>21</v>
+      <c r="I37" t="n">
+        <v>22</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1404096577.764937</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4342261604.880685</v>
+        <v>1943753559.6429</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004550421345410614</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1215287440533804</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03720789425055403</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>971876766.318274</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4828163681.247424</v>
+        <v>1668836667.639271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002394097861674864</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1817720483967221</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02284419658120554</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>834418378.5438403</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4606748840.362251</v>
+        <v>1385378617.515543</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003740994681088597</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1327259537921638</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.0507999074042307</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>692689303.5791224</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5890119459.148879</v>
+        <v>1926097730.280972</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001046382175432507</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>25</v>
+        <v>0.1321104774963766</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03109930302387534</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>963048946.4875005</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5397856591.82644</v>
+        <v>3000602082.262606</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00390415335509555</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.07985076771866897</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02869399970732817</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>30</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1500301001.515187</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5382209166.452277</v>
+        <v>2091094611.111185</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003770195217277822</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+        <v>0.1621073320162819</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01975402427099711</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1045547395.248428</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5030470603.884831</v>
+        <v>2092345706.049299</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001539830951561653</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>23</v>
+        <v>0.075210735359693</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03390234550426303</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1046172977.713993</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5304016986.589691</v>
+        <v>2122632192.544406</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001123238686363743</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1319267965959678</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05283550690396573</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1061316099.41864</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11413486398.94667</v>
+        <v>4777882274.994668</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003582274738286197</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
+        <v>0.1395700235996392</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04974546692135066</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2388941151.484241</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>456</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3225603509.140866</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1439490610139363</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0410613866127606</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="D47" t="n">
-        <v>368</v>
-      </c>
-      <c r="E47" t="n">
-        <v>9357467800.002024</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.003329632760390951</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+      <c r="I47" t="n">
+        <v>23</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1612801709.727391</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6061842926.618799</v>
+        <v>4044736577.297003</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002611621044112932</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.08682487804950659</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03588646657653027</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2022368320.323349</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5538258982.728907</v>
+        <v>1689901023.174317</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003678619249129049</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1300014546684474</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03261185632836876</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>844950514.0089124</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7613279045.042051</v>
+        <v>4004961890.20599</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003611638329883199</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.115947496544942</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0426884455028826</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2002480933.344671</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3893031373.578568</v>
+        <v>1163039894.309804</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004189062395446677</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1511845051088527</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04436741613779935</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>581520004.5983598</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8101999061.225151</v>
+        <v>3469531412.866092</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001464180753886949</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21</v>
+        <v>0.08814335366107413</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04937872651906927</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1734765794.054642</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4550858100.467399</v>
+        <v>2408995545.782528</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002901395593403721</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.1330904709583298</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03496499175964955</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1204497846.054702</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4857996230.036641</v>
+        <v>4698895080.685863</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005366707740454081</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1336163429806607</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04643456526901529</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2349447659.209464</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8574303462.114467</v>
+        <v>4304831652.11471</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002899129282678946</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>27</v>
+        <v>0.1692781014081151</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02738665254092082</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2152415814.344708</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6085677335.463866</v>
+        <v>1561409992.947099</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002707535297972544</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>12</v>
+        <v>0.159941515853339</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05235161304595715</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>780705029.5546274</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7469293904.290609</v>
+        <v>4073897013.491399</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003175108276942112</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1798920923309335</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02223949349909192</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2036948601.229795</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5028767637.649724</v>
+        <v>1906253802.154169</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002182049193331693</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1453320528959</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02918430182755362</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>953126895.0614392</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7343270968.685945</v>
+        <v>4371295670.068343</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003063888086453588</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.1040525331017128</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04380021919249088</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2185647793.005043</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3248690533.931127</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1396421883027821</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02795026832339107</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5852002743.94225</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.003677684088249008</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1624345363.312587</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5819090226.296517</v>
+        <v>3087008667.9939</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004629442297877389</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1653860153106538</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0285291557604645</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1543504306.18642</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5264639607.059422</v>
+        <v>2090083376.7873</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004053256577192307</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1766798842338121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04154010807930114</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1045041759.925937</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6698508665.69021</v>
+        <v>5289364953.16462</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005026788340735133</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.07489232609084719</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04282216349001747</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2644682481.348012</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3830393175.639174</v>
+        <v>3758150984.620168</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00384140575614037</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1276886429414851</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02558928416856642</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1879075511.067472</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6032899465.533237</v>
+        <v>4314034519.650752</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003951780733986697</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>22</v>
+        <v>0.1099342198819909</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02616627837117097</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2157017259.586292</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6083799959.620549</v>
+        <v>3557464606.022031</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0038467645631723</v>
-      </c>
-      <c r="G66" t="b">
+        <v>0.123495657039806</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04846718514425882</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>18</v>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1778732252.82507</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6621150289.519337</v>
+        <v>2445190893.13378</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004589989103370445</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>15</v>
+        <v>0.09655381938521153</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04007299420438497</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1222595511.685223</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5926880012.734508</v>
+        <v>4613997487.66304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001983233224382195</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>18</v>
+        <v>0.1202192082875075</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04722526268112789</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2306998776.749942</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4639326285.412545</v>
+        <v>1523553922.511257</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001121461278441558</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1286987488694563</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05703760478959455</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>761776904.5137079</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8173280906.841785</v>
+        <v>3449698160.634291</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003784522787609081</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.07271381464224085</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04550361185043898</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1724849086.453898</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4525814893.725974</v>
+        <v>5513964449.525528</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003282914757178939</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.140378512284814</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02347010014978675</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2756982368.747737</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5764004579.025092</v>
+        <v>1759127558.799466</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001912438068517837</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.09504686298392791</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03971414376333292</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>879563764.4870481</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7660020604.798573</v>
+        <v>2292562603.723884</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009272697038891347</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.0986464764746859</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03637368367872279</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1146281362.525166</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6495566903.981482</v>
+        <v>3695446891.530547</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004456036176543134</v>
-      </c>
-      <c r="G74" t="b">
+        <v>0.135211347897735</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02933822187171323</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="H74" t="n">
-        <v>18</v>
+      <c r="I74" t="n">
+        <v>29</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1847723450.994745</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7332744721.707417</v>
+        <v>1555674374.595405</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003081833361651449</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>16</v>
+        <v>0.1481071173821187</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03282516545019427</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>777837193.0459819</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4830131016.022762</v>
+        <v>3237386040.843004</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003024083985070732</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>18</v>
+        <v>0.1172095272394332</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03104964762953442</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1618692973.085397</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6749895001.455797</v>
+        <v>1691125891.081341</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005593719834835041</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1681591140723348</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01934300812595043</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>845562961.3529897</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7252994792.065786</v>
+        <v>3523439971.380354</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003167392056343704</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.1160078798741267</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04308513276444627</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1761719985.43393</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7182001627.824809</v>
+        <v>1768318908.792961</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002144682582195917</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1725129743348589</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02632632476142745</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>884159535.4249184</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6882495860.94232</v>
+        <v>5088466927.090315</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002494729269016676</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.08573295024502423</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03410621372890576</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2544233517.062388</v>
       </c>
     </row>
     <row r="81">
@@ -2695,19 +3179,25 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6949742493.363112</v>
+        <v>4195633908.676154</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004803767068042383</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.09083755317284983</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02112498942908745</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2097816924.693869</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6367802757.933347</v>
+        <v>3809460122.493653</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004181437644361613</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1970541310785247</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02135020794472054</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1904730111.520254</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8302575983.728109</v>
+        <v>2420968325.232043</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002322201243685754</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>22</v>
+        <v>0.1207218464794349</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0412469431554613</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1210484200.203773</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7188761890.912705</v>
+        <v>2571080678.346704</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004513071051547177</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="n">
-        <v>22</v>
+        <v>0.08441453500958249</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.05158814659373959</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1285540260.493837</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4127296148.855245</v>
+        <v>2701802788.30486</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003835912551340987</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1258661512257169</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03928774968745865</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1350901421.296055</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8105644664.142788</v>
+        <v>1803187710.50347</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001988792592985359</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>23</v>
+        <v>0.1085372750728123</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02698253978641374</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>901593855.4353956</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3262005537.07056</v>
+        <v>936339170.9726008</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001416638593541877</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1450605028761731</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04028497653179333</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>468169573.380998</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7770112759.304073</v>
+        <v>3141751758.85031</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004517717414508461</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1666108835121667</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03169945394832901</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1570875923.796241</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7906201632.303296</v>
+        <v>2523072625.816597</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004529421885460158</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>19</v>
+        <v>0.1477321565426172</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.04147703559605927</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1261536385.902497</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6096277572.813412</v>
+        <v>2117140227.941982</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002888247189667759</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16</v>
+        <v>0.09655246860187544</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03635152783357262</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1058570205.560511</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5441384264.328844</v>
+        <v>1668012393.172671</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00305802138758011</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1542705262130954</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05343832080597093</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>834006213.0353147</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4550881809.061035</v>
+        <v>1810750080.801587</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003442139479000343</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09961120086297884</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03257334764643639</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>905374972.2042751</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7321986361.891273</v>
+        <v>4528774536.390198</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001763067477397541</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>29</v>
+        <v>0.08708503575306853</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05018269497110767</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2264387234.55757</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5344060110.904085</v>
+        <v>2125074675.502683</v>
       </c>
       <c r="F94" t="n">
-        <v>0.00103319812993796</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>29</v>
+        <v>0.1565249348878077</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02944290248073956</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1062537352.294761</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6553723620.623193</v>
+        <v>2767241879.578099</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002718996848296519</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>22</v>
+        <v>0.08733713429936378</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05090266774439522</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>20</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1383620956.393559</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6075347761.09615</v>
+        <v>2141070218.871499</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002127947790301169</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>23</v>
+        <v>0.08904518260630631</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03795314658304213</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1070535081.265529</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5290353544.747536</v>
+        <v>4047732025.167953</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004332289215143896</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>22</v>
+        <v>0.1556986535640408</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01965835261052453</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2023866072.730948</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7313085720.701244</v>
+        <v>3365376026.397677</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003626970806186908</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>33</v>
+        <v>0.08386355625302558</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02362576607062663</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1682688022.585337</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2940299180.818009</v>
+        <v>2910835206.777544</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005324883391347414</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.120355061944583</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02557762262077377</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>27</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1455417582.808665</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4814698606.084537</v>
+        <v>3546074018.305952</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002404596923674473</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1141775995024685</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02790483237098478</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1773037043.523224</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7050177209.09843</v>
+        <v>3226612634.656551</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001597416913298004</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>28</v>
+        <v>0.2029516279147973</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05638994215986213</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1613306436.238952</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_87.xlsx
+++ b/output/fit_clients/fit_round_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1585354820.642867</v>
+        <v>2039655582.254215</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08678996835959606</v>
+        <v>0.1106532534531511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03657332073461138</v>
+        <v>0.02941561973364264</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>792677350.1164134</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1712838542.800821</v>
+        <v>2431860078.014113</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1319926056544222</v>
+        <v>0.1587293291181213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03298318048750495</v>
+        <v>0.03483346457679941</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>856419266.9071567</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4895297559.220778</v>
+        <v>3471692937.223948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128992621307948</v>
+        <v>0.1247281272270336</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02412931410722082</v>
+        <v>0.0329438068465485</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2447648857.135062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4189745385.631428</v>
+        <v>3199589151.24001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1084639211796614</v>
+        <v>0.07392588906561882</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04922107924657144</v>
+        <v>0.04868055912290904</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>34</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2094872683.921484</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2295626915.752029</v>
+        <v>2065822598.368291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1296630127414047</v>
+        <v>0.1412299420885923</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04277465105368165</v>
+        <v>0.04135428816674767</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1147813455.380363</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2619698850.060148</v>
+        <v>2048291603.397506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08892242342140788</v>
+        <v>0.06864317821955382</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03074334567658655</v>
+        <v>0.03677898021678017</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1309849426.437849</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3499110397.048507</v>
+        <v>2889483691.864302</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2118851523518553</v>
+        <v>0.156313668357653</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02369092093555014</v>
+        <v>0.03034830581994778</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1749555306.984736</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1391481124.532571</v>
+        <v>1761071517.4849</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1196487629320231</v>
+        <v>0.168956838970847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03367157481069723</v>
+        <v>0.03079594808696601</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>695740673.2443879</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4569613115.675387</v>
+        <v>4316332777.878325</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1437342679000487</v>
+        <v>0.1877127517563097</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0373107037736496</v>
+        <v>0.04877778317773918</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2284806623.757441</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3489607702.385574</v>
+        <v>3240349405.987652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1364529282688168</v>
+        <v>0.1669678098953274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0498475263516117</v>
+        <v>0.03728853056353327</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1744803828.201324</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2094114878.330717</v>
+        <v>2159370759.943132</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1715614171160282</v>
+        <v>0.1265456863956613</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04746237685386472</v>
+        <v>0.05034721336547586</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1047057374.149261</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3745535439.588272</v>
+        <v>3343572548.554935</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08379821031017876</v>
+        <v>0.07623773661916589</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02699881530938244</v>
+        <v>0.02600383809300814</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>29</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1872767787.567739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2957713075.833531</v>
+        <v>3705446337.918308</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1884157075387449</v>
+        <v>0.1196299272102743</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04135959416303608</v>
+        <v>0.03348080354094361</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1478856575.335154</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1470139677.926424</v>
+        <v>1271770235.565431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08309001658559584</v>
+        <v>0.0973281674079149</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04158553031246703</v>
+        <v>0.03924110542790676</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>735069917.6093997</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2340039787.746271</v>
+        <v>2269465987.371484</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1158900623204758</v>
+        <v>0.09232610720675379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0489334886750432</v>
+        <v>0.043028217455947</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1170019938.898005</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4442138329.354568</v>
+        <v>4211720521.088687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1260235745600937</v>
+        <v>0.1303646691115857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03393315866333645</v>
+        <v>0.04568450987352782</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2221069177.294751</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3952048616.944218</v>
+        <v>3850870629.207149</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1634099303948323</v>
+        <v>0.1306808525416625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03418284763708596</v>
+        <v>0.02458945668952896</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1976024269.703628</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1112338947.788327</v>
+        <v>937399102.7297651</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1245930056891153</v>
+        <v>0.1596160441151313</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02199622778603811</v>
+        <v>0.02702846473617482</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>556169530.3873483</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2128433462.602797</v>
+        <v>1753182324.927246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1156253479212731</v>
+        <v>0.1450627666940279</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02052720313820768</v>
+        <v>0.03144826699178122</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1064216743.88922</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2133068467.54774</v>
+        <v>2655574676.308243</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07657689182446399</v>
+        <v>0.09267573402724351</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03487402204160057</v>
+        <v>0.04205201125470653</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1066534256.915934</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2780432554.365411</v>
+        <v>2710711681.243168</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1360677333112693</v>
+        <v>0.08923709200429855</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04690384931961771</v>
+        <v>0.04170606249000778</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>24</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1390216351.785426</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1050711652.638652</v>
+        <v>1523398696.523847</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1562694908021338</v>
+        <v>0.1445696565794849</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05306065641333874</v>
+        <v>0.04360877327007019</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>525355887.8735769</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3230397754.080103</v>
+        <v>4039216885.289695</v>
       </c>
       <c r="F24" t="n">
-        <v>0.141268387716263</v>
+        <v>0.1110658939884324</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02988491024365062</v>
+        <v>0.02740688659113777</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1615198896.713816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1354697828.568576</v>
+        <v>922884567.5656098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09732629132772894</v>
+        <v>0.1211277664085246</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02219909809718253</v>
+        <v>0.0246246941999424</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>677348896.5869057</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>879541312.0759966</v>
+        <v>992313627.6255201</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1117018845825659</v>
+        <v>0.1171224365895305</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03413443911709435</v>
+        <v>0.03581285351436887</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>439770598.5667794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4049490800.357414</v>
+        <v>3307833020.821259</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1400096032677843</v>
+        <v>0.1195575994228914</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02261900518800164</v>
+        <v>0.02701138510664159</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2024745407.791731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3085832611.992239</v>
+        <v>2503711499.168545</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1329800586523825</v>
+        <v>0.1432836021428514</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04675925681337705</v>
+        <v>0.04460035370535222</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>28</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1542916324.574719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4431099252.215055</v>
+        <v>5320163662.833832</v>
       </c>
       <c r="F29" t="n">
-        <v>0.135435336175013</v>
+        <v>0.1435451192029023</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03492321266810357</v>
+        <v>0.04108396958815499</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2215549612.991834</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1523129302.169603</v>
+        <v>1469942918.547052</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09595161179890681</v>
+        <v>0.1301959869383832</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03387642012991247</v>
+        <v>0.03984458008468812</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>761564634.1862832</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1084280343.830713</v>
+        <v>1378632591.492102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08776632478319804</v>
+        <v>0.1115009994811792</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03670404494020363</v>
+        <v>0.0460200878999649</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>542140150.5342299</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666741194.718738</v>
+        <v>1146036204.420061</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09884143949517607</v>
+        <v>0.08282092039855851</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03847503550402348</v>
+        <v>0.02411722333182124</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>833370700.1442851</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2403476802.083826</v>
+        <v>2325560754.058658</v>
       </c>
       <c r="F33" t="n">
-        <v>0.170558081053463</v>
+        <v>0.126238285708788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05900318166808129</v>
+        <v>0.04373692962037028</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1201738447.393698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1517066698.644623</v>
+        <v>1571803533.913248</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1173076085818393</v>
+        <v>0.1151017737623332</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02767249292096681</v>
+        <v>0.02751044372887398</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>758533302.3005335</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1229877973.009263</v>
+        <v>1249804275.685956</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1110068195336752</v>
+        <v>0.1117726525147671</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03717962031876261</v>
+        <v>0.04026501980401024</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>614938954.5935714</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3121854473.712389</v>
+        <v>2537455030.581405</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1516312672749941</v>
+        <v>0.1629958206784898</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0287471682363893</v>
+        <v>0.02064318068441099</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>22</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1560927208.928993</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2808192878.788124</v>
+        <v>1898985489.927221</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0942887672955333</v>
+        <v>0.08582172309725242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0340754561918938</v>
+        <v>0.02982881443028623</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>22</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1404096577.764937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1943753559.6429</v>
+        <v>1818359828.320768</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1215287440533804</v>
+        <v>0.09854959755900038</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03720789425055403</v>
+        <v>0.02500084024027211</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>971876766.318274</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1668836667.639271</v>
+        <v>1802572968.422888</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1817720483967221</v>
+        <v>0.1237146940313584</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02284419658120554</v>
+        <v>0.02268749206104585</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>834418378.5438403</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1385378617.515543</v>
+        <v>1588116290.195538</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1327259537921638</v>
+        <v>0.1610194810402192</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0507999074042307</v>
+        <v>0.05705033171796868</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>692689303.5791224</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1926097730.280972</v>
+        <v>2527359897.452471</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1321104774963766</v>
+        <v>0.1128810891130109</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03109930302387534</v>
+        <v>0.04370965275763724</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>963048946.4875005</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3000602082.262606</v>
+        <v>2848821527.175689</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07985076771866897</v>
+        <v>0.08378615224799292</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02869399970732817</v>
+        <v>0.0332075231996611</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>30</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1500301001.515187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2091094611.111185</v>
+        <v>2310438500.876363</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1621073320162819</v>
+        <v>0.1782924679506601</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01975402427099711</v>
+        <v>0.025111009491543</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1045547395.248428</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2092345706.049299</v>
+        <v>2024661837.191748</v>
       </c>
       <c r="F44" t="n">
-        <v>0.075210735359693</v>
+        <v>0.09383168280515328</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03390234550426303</v>
+        <v>0.03680693460253557</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1046172977.713993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2122632192.544406</v>
+        <v>1595362986.46996</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1319267965959678</v>
+        <v>0.1868176584514313</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05283550690396573</v>
+        <v>0.05177015246494888</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1061316099.41864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4777882274.994668</v>
+        <v>4641088999.067587</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1395700235996392</v>
+        <v>0.1175150588860281</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04974546692135066</v>
+        <v>0.05045894912986294</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>31</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2388941151.484241</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3225603509.140866</v>
+        <v>3172299352.484404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1439490610139363</v>
+        <v>0.1686754429166896</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0410613866127606</v>
+        <v>0.05091341876279493</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>23</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1612801709.727391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4044736577.297003</v>
+        <v>3457076533.505367</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08682487804950659</v>
+        <v>0.08506691655995735</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03588646657653027</v>
+        <v>0.03520451703744801</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2022368320.323349</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1689901023.174317</v>
+        <v>1428383050.946791</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1300014546684474</v>
+        <v>0.1234582178895645</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03261185632836876</v>
+        <v>0.0364151918255293</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>844950514.0089124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4004961890.20599</v>
+        <v>3650679395.481836</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115947496544942</v>
+        <v>0.122044970773342</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0426884455028826</v>
+        <v>0.0526241908043181</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>30</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2002480933.344671</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163039894.309804</v>
+        <v>1043247502.011587</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1511845051088527</v>
+        <v>0.1864406684390897</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04436741613779935</v>
+        <v>0.04845764594125877</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>581520004.5983598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3469531412.866092</v>
+        <v>4059396234.129056</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08814335366107413</v>
+        <v>0.1210686010877563</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04937872651906927</v>
+        <v>0.04210748119281989</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>36</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1734765794.054642</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2408995545.782528</v>
+        <v>3255901348.223772</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1330904709583298</v>
+        <v>0.1625389300122573</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03496499175964955</v>
+        <v>0.02647794439012558</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1204497846.054702</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4698895080.685863</v>
+        <v>4542458851.813886</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1336163429806607</v>
+        <v>0.1620410870384645</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04643456526901529</v>
+        <v>0.04112156389825887</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2349447659.209464</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4304831652.11471</v>
+        <v>3237657923.009644</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1692781014081151</v>
+        <v>0.17251912436578</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02738665254092082</v>
+        <v>0.01994548332765922</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2152415814.344708</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1561409992.947099</v>
+        <v>1235455698.87973</v>
       </c>
       <c r="F56" t="n">
-        <v>0.159941515853339</v>
+        <v>0.1272221337007118</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05235161304595715</v>
+        <v>0.04135665127127736</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>780705029.5546274</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4073897013.491399</v>
+        <v>3579834977.492247</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1798920923309335</v>
+        <v>0.1424235191823812</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02223949349909192</v>
+        <v>0.02125906474890694</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2036948601.229795</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1906253802.154169</v>
+        <v>1767346339.127288</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1453320528959</v>
+        <v>0.1278951014522388</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02918430182755362</v>
+        <v>0.03271357598993963</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>953126895.0614392</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4371295670.068343</v>
+        <v>3915464268.994485</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1040525331017128</v>
+        <v>0.1224085774874734</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04380021919249088</v>
+        <v>0.0333156866643223</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>24</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2185647793.005043</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3248690533.931127</v>
+        <v>2763600033.988721</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1396421883027821</v>
+        <v>0.1659643373417931</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02795026832339107</v>
+        <v>0.02552492846545222</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>28</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1624345363.312587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3087008667.9939</v>
+        <v>2286774800.257466</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1653860153106538</v>
+        <v>0.169145866572756</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0285291557604645</v>
+        <v>0.03262863630002321</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1543504306.18642</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2090083376.7873</v>
+        <v>2016786508.112064</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1766798842338121</v>
+        <v>0.1733035288719635</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04154010807930114</v>
+        <v>0.03264029003109728</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1045041759.925937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5289364953.16462</v>
+        <v>4047006498.228289</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07489232609084719</v>
+        <v>0.09530316303485893</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04282216349001747</v>
+        <v>0.03133333687659616</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2644682481.348012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3758150984.620168</v>
+        <v>5168945062.340498</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1276886429414851</v>
+        <v>0.1808006949763434</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02558928416856642</v>
+        <v>0.02293385756637032</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1879075511.067472</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4314034519.650752</v>
+        <v>5740311506.084099</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1099342198819909</v>
+        <v>0.1221216160074685</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02616627837117097</v>
+        <v>0.02645365405730874</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>31</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2157017259.586292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3557464606.022031</v>
+        <v>5467707540.377872</v>
       </c>
       <c r="F66" t="n">
-        <v>0.123495657039806</v>
+        <v>0.157048448857905</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04846718514425882</v>
+        <v>0.03855948031662453</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>25</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1778732252.82507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2445190893.13378</v>
+        <v>2565581716.729793</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09655381938521153</v>
+        <v>0.1004701427307014</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04007299420438497</v>
+        <v>0.03758165956247377</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>28</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1222595511.685223</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4613997487.66304</v>
+        <v>4649373348.760193</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1202192082875075</v>
+        <v>0.1369611644792128</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04722526268112789</v>
+        <v>0.05096154364995201</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2306998776.749942</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1523553922.511257</v>
+        <v>1708890119.600869</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1286987488694563</v>
+        <v>0.1819315102966009</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05703760478959455</v>
+        <v>0.04054227413006413</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>761776904.5137079</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3449698160.634291</v>
+        <v>2417317588.74816</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07271381464224085</v>
+        <v>0.06586590635440331</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04550361185043898</v>
+        <v>0.04601251175077983</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>25</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1724849086.453898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5513964449.525528</v>
+        <v>5417028397.457913</v>
       </c>
       <c r="F71" t="n">
-        <v>0.140378512284814</v>
+        <v>0.1750886505775982</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02347010014978675</v>
+        <v>0.02573022052354628</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2756982368.747737</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1759127558.799466</v>
+        <v>1558471912.85399</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09504686298392791</v>
+        <v>0.07044499562668401</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03971414376333292</v>
+        <v>0.03328316772524137</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>879563764.4870481</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2292562603.723884</v>
+        <v>2378348985.729068</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0986464764746859</v>
+        <v>0.1029400283936656</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03637368367872279</v>
+        <v>0.04530530507909974</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>33</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1146281362.525166</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3695446891.530547</v>
+        <v>3778463420.481252</v>
       </c>
       <c r="F74" t="n">
-        <v>0.135211347897735</v>
+        <v>0.1515728685417094</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02933822187171323</v>
+        <v>0.03052117794063075</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>29</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1847723450.994745</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1555674374.595405</v>
+        <v>2103410896.89611</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1481071173821187</v>
+        <v>0.1165631635770589</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03282516545019427</v>
+        <v>0.02883364611074565</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>777837193.0459819</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3237386040.843004</v>
+        <v>3372340484.595639</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1172095272394332</v>
+        <v>0.07625918211499672</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03104964762953442</v>
+        <v>0.0324508013131238</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1618692973.085397</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1691125891.081341</v>
+        <v>1436723961.093775</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1681591140723348</v>
+        <v>0.1482811090808664</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01934300812595043</v>
+        <v>0.03076343326485986</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>845562961.3529897</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3523439971.380354</v>
+        <v>3638999722.628508</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1160078798741267</v>
+        <v>0.1091653618382159</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04308513276444627</v>
+        <v>0.043641671237764</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1761719985.43393</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1768318908.792961</v>
+        <v>1157701175.404454</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1725129743348589</v>
+        <v>0.1595413923970931</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02632632476142745</v>
+        <v>0.03992964449644291</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>884159535.4249184</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5088466927.090315</v>
+        <v>4895182612.499738</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08573295024502423</v>
+        <v>0.1066803194846609</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03410621372890576</v>
+        <v>0.03151671855862499</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2544233517.062388</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4195633908.676154</v>
+        <v>5040340310.414989</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09083755317284983</v>
+        <v>0.08432879463490686</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02112498942908745</v>
+        <v>0.02245013094393706</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2097816924.693869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3809460122.493653</v>
+        <v>4826075453.170788</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1970541310785247</v>
+        <v>0.168995276338609</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02135020794472054</v>
+        <v>0.02205685244141134</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1904730111.520254</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2420968325.232043</v>
+        <v>1991411228.619562</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207218464794349</v>
+        <v>0.1210689718678518</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0412469431554613</v>
+        <v>0.0333032992381839</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1210484200.203773</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2571080678.346704</v>
+        <v>1845934296.058113</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08441453500958249</v>
+        <v>0.1199115634628797</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05158814659373959</v>
+        <v>0.03726721334629915</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1285540260.493837</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2701802788.30486</v>
+        <v>3146011214.650579</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1258661512257169</v>
+        <v>0.1239313638577625</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03928774968745865</v>
+        <v>0.04575266644725023</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>32</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1350901421.296055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1803187710.50347</v>
+        <v>2588785807.084166</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1085372750728123</v>
+        <v>0.148909608697069</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02698253978641374</v>
+        <v>0.02364938768145422</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>901593855.4353956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>936339170.9726008</v>
+        <v>959621353.8121777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1450605028761731</v>
+        <v>0.1650296809671308</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04028497653179333</v>
+        <v>0.03012183597921719</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>468169573.380998</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3141751758.85031</v>
+        <v>2256358912.452905</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1666108835121667</v>
+        <v>0.1320180993496766</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03169945394832901</v>
+        <v>0.02472494980066207</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>34</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1570875923.796241</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2523072625.816597</v>
+        <v>3284424403.07351</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1477321565426172</v>
+        <v>0.1361137789637417</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04147703559605927</v>
+        <v>0.0340982717038624</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>29</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1261536385.902497</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2117140227.941982</v>
+        <v>1914465278.39611</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09655246860187544</v>
+        <v>0.1309994962340468</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03635152783357262</v>
+        <v>0.05231112477999842</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1058570205.560511</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1668012393.172671</v>
+        <v>2048622998.749577</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1542705262130954</v>
+        <v>0.1445768541518882</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05343832080597093</v>
+        <v>0.04154936255762315</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>834006213.0353147</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1810750080.801587</v>
+        <v>2649547145.153171</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09961120086297884</v>
+        <v>0.09280410363727296</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03257334764643639</v>
+        <v>0.02942646552980866</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>905374972.2042751</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4528774536.390198</v>
+        <v>4929584091.293452</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08708503575306853</v>
+        <v>0.1111986085464243</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05018269497110767</v>
+        <v>0.03390757074418538</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2264387234.55757</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2125074675.502683</v>
+        <v>2253965153.920831</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1565249348878077</v>
+        <v>0.1321396683879565</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02944290248073956</v>
+        <v>0.0421433370580933</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1062537352.294761</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2767241879.578099</v>
+        <v>2870998003.510104</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08733713429936378</v>
+        <v>0.1364064854495046</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05090266774439522</v>
+        <v>0.04300028745182798</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>20</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1383620956.393559</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2141070218.871499</v>
+        <v>1975469340.321182</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08904518260630631</v>
+        <v>0.1037515951733891</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03795314658304213</v>
+        <v>0.04410930709724187</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1070535081.265529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4047732025.167953</v>
+        <v>4984990624.688765</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1556986535640408</v>
+        <v>0.1132696238493759</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01965835261052453</v>
+        <v>0.0203545569050691</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>28</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2023866072.730948</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3365376026.397677</v>
+        <v>3110337402.145093</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08386355625302558</v>
+        <v>0.1273498945203357</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02362576607062663</v>
+        <v>0.02740466785370122</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1682688022.585337</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2910835206.777544</v>
+        <v>3069429971.783566</v>
       </c>
       <c r="F99" t="n">
-        <v>0.120355061944583</v>
+        <v>0.1443685289030108</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02557762262077377</v>
+        <v>0.02175683248642004</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>27</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1455417582.808665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3546074018.305952</v>
+        <v>3342613116.386459</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1141775995024685</v>
+        <v>0.11748022617348</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02790483237098478</v>
+        <v>0.02300367341450171</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1773037043.523224</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3226612634.656551</v>
+        <v>2506430582.429308</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2029516279147973</v>
+        <v>0.2123417521945149</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05638994215986213</v>
+        <v>0.03749774058727368</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>37</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1613306436.238952</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_87.xlsx
+++ b/output/fit_clients/fit_round_87.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2039655582.254215</v>
+        <v>2283026203.579402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1106532534531511</v>
+        <v>0.0911506508297448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02941561973364264</v>
+        <v>0.04204349342611986</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2431860078.014113</v>
+        <v>1907058238.235903</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587293291181213</v>
+        <v>0.1321934834933198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03483346457679941</v>
+        <v>0.0420640018564197</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3471692937.223948</v>
+        <v>4045519835.550282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1247281272270336</v>
+        <v>0.1499223924410968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0329438068465485</v>
+        <v>0.02830257661855613</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3199589151.24001</v>
+        <v>3002923969.454825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07392588906561882</v>
+        <v>0.09425113253405139</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04868055912290904</v>
+        <v>0.04525161496573855</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2065822598.368291</v>
+        <v>2836693932.887561</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1412299420885923</v>
+        <v>0.1460258425138172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04135428816674767</v>
+        <v>0.04230843390419484</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2048291603.397506</v>
+        <v>2386464356.452407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06864317821955382</v>
+        <v>0.06990982100775614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03677898021678017</v>
+        <v>0.03387397029919631</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2889483691.864302</v>
+        <v>3466155096.493323</v>
       </c>
       <c r="F8" t="n">
-        <v>0.156313668357653</v>
+        <v>0.1628255119772926</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03034830581994778</v>
+        <v>0.02222243840207125</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1761071517.4849</v>
+        <v>1870453476.356164</v>
       </c>
       <c r="F9" t="n">
-        <v>0.168956838970847</v>
+        <v>0.1750548136910768</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03079594808696601</v>
+        <v>0.03515124014663918</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4316332777.878325</v>
+        <v>4727928236.574761</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1877127517563097</v>
+        <v>0.1348616233392312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04877778317773918</v>
+        <v>0.03462951561003615</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3240349405.987652</v>
+        <v>2889084120.071407</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1669678098953274</v>
+        <v>0.1812232431150477</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03728853056353327</v>
+        <v>0.03589391353184741</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2159370759.943132</v>
+        <v>2246714744.953139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1265456863956613</v>
+        <v>0.1953441625224033</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05034721336547586</v>
+        <v>0.04881629080108417</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3343572548.554935</v>
+        <v>4495796608.199601</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07623773661916589</v>
+        <v>0.08637352452950159</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02600383809300814</v>
+        <v>0.02891339078566571</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3705446337.918308</v>
+        <v>3875052880.966994</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1196299272102743</v>
+        <v>0.1397223303145039</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03348080354094361</v>
+        <v>0.0321001444385353</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1271770235.565431</v>
+        <v>1770532171.157653</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0973281674079149</v>
+        <v>0.07212595811850657</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03924110542790676</v>
+        <v>0.04313809632087091</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2269465987.371484</v>
+        <v>1906760295.791332</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09232610720675379</v>
+        <v>0.09979633266946135</v>
       </c>
       <c r="G16" t="n">
-        <v>0.043028217455947</v>
+        <v>0.03320282807913545</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4211720521.088687</v>
+        <v>5277703150.037803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1303646691115857</v>
+        <v>0.1635575061619548</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04568450987352782</v>
+        <v>0.04940349658596033</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3850870629.207149</v>
+        <v>3580703795.694696</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1306808525416625</v>
+        <v>0.1763939121260921</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02458945668952896</v>
+        <v>0.03307491147267663</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>937399102.7297651</v>
+        <v>1144414681.115234</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1596160441151313</v>
+        <v>0.1190520241187471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02702846473617482</v>
+        <v>0.02184216836239197</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1753182324.927246</v>
+        <v>2651861311.448792</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1450627666940279</v>
+        <v>0.143233958172602</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03144826699178122</v>
+        <v>0.0311682794628377</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2655574676.308243</v>
+        <v>2164242779.61443</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09267573402724351</v>
+        <v>0.07584456730512577</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04205201125470653</v>
+        <v>0.03962745642090181</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2710711681.243168</v>
+        <v>2708207462.386901</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08923709200429855</v>
+        <v>0.100407847073255</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04170606249000778</v>
+        <v>0.03976697118919967</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1523398696.523847</v>
+        <v>1452815409.994476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1445696565794849</v>
+        <v>0.1573585678852654</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04360877327007019</v>
+        <v>0.05305396710202023</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4039216885.289695</v>
+        <v>4071432725.062696</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1110658939884324</v>
+        <v>0.1167094947486817</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02740688659113777</v>
+        <v>0.02909413149301672</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>922884567.5656098</v>
+        <v>1067926326.5451</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1211277664085246</v>
+        <v>0.07589720236093124</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0246246941999424</v>
+        <v>0.02571909065037815</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>992313627.6255201</v>
+        <v>876741074.311937</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1171224365895305</v>
+        <v>0.1202099151549186</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03581285351436887</v>
+        <v>0.02634303333467226</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3307833020.821259</v>
+        <v>4059626181.232566</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1195575994228914</v>
+        <v>0.1069495122275358</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02701138510664159</v>
+        <v>0.02545766387308052</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2503711499.168545</v>
+        <v>2674790856.32374</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1432836021428514</v>
+        <v>0.1192214010458685</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04460035370535222</v>
+        <v>0.05011351613029753</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5320163662.833832</v>
+        <v>5185271375.284823</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1435451192029023</v>
+        <v>0.1090416283961668</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04108396958815499</v>
+        <v>0.04493480146282581</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1469942918.547052</v>
+        <v>1722091083.538363</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1301959869383832</v>
+        <v>0.1011087652607112</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03984458008468812</v>
+        <v>0.03651837382582836</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1378632591.492102</v>
+        <v>974801559.8654568</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1115009994811792</v>
+        <v>0.0819384516015992</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0460200878999649</v>
+        <v>0.03504665945325466</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1146036204.420061</v>
+        <v>1684317853.265229</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08282092039855851</v>
+        <v>0.07926614158906524</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02411722333182124</v>
+        <v>0.03182129097572517</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2325560754.058658</v>
+        <v>2140096310.313684</v>
       </c>
       <c r="F33" t="n">
-        <v>0.126238285708788</v>
+        <v>0.174714105172387</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04373692962037028</v>
+        <v>0.05587831841542262</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1571803533.913248</v>
+        <v>1089378080.825856</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1151017737623332</v>
+        <v>0.07348199005456583</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02751044372887398</v>
+        <v>0.01748920818018801</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1249804275.685956</v>
+        <v>953272562.2861334</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1117726525147671</v>
+        <v>0.07497642453340769</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04026501980401024</v>
+        <v>0.04387865278061423</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2537455030.581405</v>
+        <v>2804144249.345712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1629958206784898</v>
+        <v>0.1727959856048646</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02064318068441099</v>
+        <v>0.02306181423368743</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1898985489.927221</v>
+        <v>2270703979.964232</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08582172309725242</v>
+        <v>0.1002646510059695</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02982881443028623</v>
+        <v>0.03881208050251003</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1818359828.320768</v>
+        <v>2203176104.972836</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09854959755900038</v>
+        <v>0.1034614502934713</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02500084024027211</v>
+        <v>0.03544133000244461</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1802572968.422888</v>
+        <v>1347624347.331051</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1237146940313584</v>
+        <v>0.128403325656965</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02268749206104585</v>
+        <v>0.02827419713121021</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1588116290.195538</v>
+        <v>1259454009.641972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1610194810402192</v>
+        <v>0.1567217277770834</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05705033171796868</v>
+        <v>0.04253773806797139</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2527359897.452471</v>
+        <v>2312985039.099778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1128810891130109</v>
+        <v>0.1316816003960549</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04370965275763724</v>
+        <v>0.03403776293760538</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2848821527.175689</v>
+        <v>4258849654.402655</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08378615224799292</v>
+        <v>0.08006314396713307</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0332075231996611</v>
+        <v>0.03932471538902719</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2310438500.876363</v>
+        <v>2041935000.198971</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1782924679506601</v>
+        <v>0.1495661285023903</v>
       </c>
       <c r="G43" t="n">
-        <v>0.025111009491543</v>
+        <v>0.0183991085553185</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2024661837.191748</v>
+        <v>1523450697.463473</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09383168280515328</v>
+        <v>0.07638734532657897</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03680693460253557</v>
+        <v>0.03578946748429265</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1595362986.46996</v>
+        <v>2098585743.697193</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1868176584514313</v>
+        <v>0.1428538356682716</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05177015246494888</v>
+        <v>0.05012675986559251</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4641088999.067587</v>
+        <v>3652732012.915765</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1175150588860281</v>
+        <v>0.1766553057080031</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05045894912986294</v>
+        <v>0.04904692919811177</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3172299352.484404</v>
+        <v>3172969197.758768</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1686754429166896</v>
+        <v>0.1371914195225008</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05091341876279493</v>
+        <v>0.05801315699677546</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3457076533.505367</v>
+        <v>3038497213.444955</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08506691655995735</v>
+        <v>0.07366810829649877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03520451703744801</v>
+        <v>0.02997359681596354</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1428383050.946791</v>
+        <v>1406768743.871257</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1234582178895645</v>
+        <v>0.1650984206066446</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0364151918255293</v>
+        <v>0.0376939230260097</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3650679395.481836</v>
+        <v>3721753126.5022</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122044970773342</v>
+        <v>0.1084151905505792</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0526241908043181</v>
+        <v>0.05170109886771071</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1043247502.011587</v>
+        <v>1256277485.594964</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1864406684390897</v>
+        <v>0.1884252433586847</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04845764594125877</v>
+        <v>0.03487757916535854</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4059396234.129056</v>
+        <v>4911934917.216578</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1210686010877563</v>
+        <v>0.1319067442208861</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04210748119281989</v>
+        <v>0.05702442688541572</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3255901348.223772</v>
+        <v>2413077773.062708</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1625389300122573</v>
+        <v>0.1370705444974124</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02647794439012558</v>
+        <v>0.02410780710702299</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4542458851.813886</v>
+        <v>4887992033.098438</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1620410870384645</v>
+        <v>0.1687061402497022</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04112156389825887</v>
+        <v>0.05174425350510634</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3237657923.009644</v>
+        <v>3400951780.745141</v>
       </c>
       <c r="F55" t="n">
-        <v>0.17251912436578</v>
+        <v>0.2177842422616789</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01994548332765922</v>
+        <v>0.03120533645883323</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1235455698.87973</v>
+        <v>1416141931.304343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1272221337007118</v>
+        <v>0.1246203897764408</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04135665127127736</v>
+        <v>0.03515569455567718</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3579834977.492247</v>
+        <v>4086281596.023818</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1424235191823812</v>
+        <v>0.1453179400531449</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02125906474890694</v>
+        <v>0.02296561392900056</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1767346339.127288</v>
+        <v>1665690836.569566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1278951014522388</v>
+        <v>0.1747364377436972</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03271357598993963</v>
+        <v>0.03824763110503288</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3915464268.994485</v>
+        <v>4927409786.927198</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1224085774874734</v>
+        <v>0.1170662475865628</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0333156866643223</v>
+        <v>0.04503982477853258</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2763600033.988721</v>
+        <v>3396002459.250269</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1659643373417931</v>
+        <v>0.1608703005343967</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02552492846545222</v>
+        <v>0.02417457905508881</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2286774800.257466</v>
+        <v>2865739634.391626</v>
       </c>
       <c r="F61" t="n">
-        <v>0.169145866572756</v>
+        <v>0.1698589857815042</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03262863630002321</v>
+        <v>0.02918667228919162</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2016786508.112064</v>
+        <v>2033395998.370653</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1733035288719635</v>
+        <v>0.128084087960023</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03264029003109728</v>
+        <v>0.04185767705213063</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4047006498.228289</v>
+        <v>4573253928.895573</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09530316303485893</v>
+        <v>0.1046923934696833</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03133333687659616</v>
+        <v>0.04224372945152152</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5168945062.340498</v>
+        <v>3885412483.498576</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1808006949763434</v>
+        <v>0.1695521136338162</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02293385756637032</v>
+        <v>0.0243624534036028</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5740311506.084099</v>
+        <v>4459724811.071737</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1221216160074685</v>
+        <v>0.1670297077636965</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02645365405730874</v>
+        <v>0.03222749959797962</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5467707540.377872</v>
+        <v>4729150982.327166</v>
       </c>
       <c r="F66" t="n">
-        <v>0.157048448857905</v>
+        <v>0.1180236557455278</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03855948031662453</v>
+        <v>0.04702482630080952</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2565581716.729793</v>
+        <v>3112890134.147428</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1004701427307014</v>
+        <v>0.08605146436193062</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03758165956247377</v>
+        <v>0.03639873958948143</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4649373348.760193</v>
+        <v>5230185591.67123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369611644792128</v>
+        <v>0.1051509457374217</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05096154364995201</v>
+        <v>0.04157307813447621</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1708890119.600869</v>
+        <v>1568766849.118071</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1819315102966009</v>
+        <v>0.1355064137471605</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04054227413006413</v>
+        <v>0.04533728916739364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2417317588.74816</v>
+        <v>2776377654.015405</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06586590635440331</v>
+        <v>0.08126503519951109</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04601251175077983</v>
+        <v>0.04495957303539224</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5417028397.457913</v>
+        <v>3443001950.293993</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1750886505775982</v>
+        <v>0.1722019043793858</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02573022052354628</v>
+        <v>0.0229542753600673</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1558471912.85399</v>
+        <v>1650780422.686906</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07044499562668401</v>
+        <v>0.07884137828739099</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03328316772524137</v>
+        <v>0.05101853883372951</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2378348985.729068</v>
+        <v>2169608712.099997</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1029400283936656</v>
+        <v>0.09447210290698103</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04530530507909974</v>
+        <v>0.04462715026660164</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3778463420.481252</v>
+        <v>3098480876.114623</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1515728685417094</v>
+        <v>0.15124638244718</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03052117794063075</v>
+        <v>0.02282828104703489</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2103410896.89611</v>
+        <v>2075140970.622584</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1165631635770589</v>
+        <v>0.1127869427236097</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02883364611074565</v>
+        <v>0.03542560871297194</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3372340484.595639</v>
+        <v>3407917313.726188</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07625918211499672</v>
+        <v>0.09457569244956572</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0324508013131238</v>
+        <v>0.03303205113582253</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1436723961.093775</v>
+        <v>2147765459.377549</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1482811090808664</v>
+        <v>0.1509249350412118</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03076343326485986</v>
+        <v>0.0249318318059678</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3638999722.628508</v>
+        <v>4513377324.41651</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1091653618382159</v>
+        <v>0.09987782989727051</v>
       </c>
       <c r="G78" t="n">
-        <v>0.043641671237764</v>
+        <v>0.04254705822106724</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1157701175.404454</v>
+        <v>1751854029.13721</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1595413923970931</v>
+        <v>0.1468712164995337</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03992964449644291</v>
+        <v>0.02767716864745692</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4895182612.499738</v>
+        <v>5379268082.09287</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1066803194846609</v>
+        <v>0.08848716151076542</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03151671855862499</v>
+        <v>0.03744637138769392</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5040340310.414989</v>
+        <v>4318239898.498896</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08432879463490686</v>
+        <v>0.1016571481235901</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02245013094393706</v>
+        <v>0.02711496294539157</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4826075453.170788</v>
+        <v>5282060155.484435</v>
       </c>
       <c r="F82" t="n">
-        <v>0.168995276338609</v>
+        <v>0.2140279305891334</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02205685244141134</v>
+        <v>0.0183911069702922</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1991411228.619562</v>
+        <v>1621663578.573819</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1210689718678518</v>
+        <v>0.1023624213116317</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0333032992381839</v>
+        <v>0.03179913925525062</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1845934296.058113</v>
+        <v>2196418897.089252</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1199115634628797</v>
+        <v>0.1012165442714125</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03726721334629915</v>
+        <v>0.03883226829851056</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3146011214.650579</v>
+        <v>2615582568.144549</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1239313638577625</v>
+        <v>0.1733044082007492</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04575266644725023</v>
+        <v>0.05324868053003046</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2588785807.084166</v>
+        <v>2128162353.750309</v>
       </c>
       <c r="F86" t="n">
-        <v>0.148909608697069</v>
+        <v>0.139039319769304</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02364938768145422</v>
+        <v>0.02721320180287953</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>959621353.8121777</v>
+        <v>1040909028.525463</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1650296809671308</v>
+        <v>0.172346405980619</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03012183597921719</v>
+        <v>0.04325854977254305</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2256358912.452905</v>
+        <v>3077437304.724597</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1320180993496766</v>
+        <v>0.144460724966352</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02472494980066207</v>
+        <v>0.03854222656218679</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3284424403.07351</v>
+        <v>3122137512.071397</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1361137789637417</v>
+        <v>0.1474562698289256</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0340982717038624</v>
+        <v>0.03898713666231971</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1914465278.39611</v>
+        <v>2026091603.762715</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1309994962340468</v>
+        <v>0.1219090966420547</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05231112477999842</v>
+        <v>0.04345003158138339</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2048622998.749577</v>
+        <v>1794053439.724059</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1445768541518882</v>
+        <v>0.1738108476289751</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04154936255762315</v>
+        <v>0.04276799876400553</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2649547145.153171</v>
+        <v>2583099872.826118</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09280410363727296</v>
+        <v>0.06876535769572314</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02942646552980866</v>
+        <v>0.03840656563456744</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4929584091.293452</v>
+        <v>3844031083.28023</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111986085464243</v>
+        <v>0.0870759337526584</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03390757074418538</v>
+        <v>0.03361800959950226</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2253965153.920831</v>
+        <v>2011812230.488922</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1321396683879565</v>
+        <v>0.145894803016427</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0421433370580933</v>
+        <v>0.02657389002696715</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2870998003.510104</v>
+        <v>3230092852.528423</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1364064854495046</v>
+        <v>0.1003164985518448</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04300028745182798</v>
+        <v>0.0486695307022605</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1975469340.321182</v>
+        <v>1463134096.899265</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1037515951733891</v>
+        <v>0.1327919839407532</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04410930709724187</v>
+        <v>0.03401301077333176</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4984990624.688765</v>
+        <v>3396868994.711811</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1132696238493759</v>
+        <v>0.1488176995252804</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0203545569050691</v>
+        <v>0.02153145515133079</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3110337402.145093</v>
+        <v>3416036725.88277</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1273498945203357</v>
+        <v>0.1143549184455983</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02740466785370122</v>
+        <v>0.03042910236343935</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3069429971.783566</v>
+        <v>2189358556.199234</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1443685289030108</v>
+        <v>0.1153142027261894</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02175683248642004</v>
+        <v>0.02649647592242478</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3342613116.386459</v>
+        <v>3397092459.469776</v>
       </c>
       <c r="F100" t="n">
-        <v>0.11748022617348</v>
+        <v>0.17811206890862</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02300367341450171</v>
+        <v>0.02564996493960645</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2506430582.429308</v>
+        <v>2919687248.834485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2123417521945149</v>
+        <v>0.15739569271342</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03749774058727368</v>
+        <v>0.03906425916343948</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_87.xlsx
+++ b/output/fit_clients/fit_round_87.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2283026203.579402</v>
+        <v>1835145531.807668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0911506508297448</v>
+        <v>0.1092042216674784</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04204349342611986</v>
+        <v>0.04445287149186337</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1907058238.235903</v>
+        <v>1609566665.908375</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1321934834933198</v>
+        <v>0.1218784977947839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0420640018564197</v>
+        <v>0.03809665354132611</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4045519835.550282</v>
+        <v>4416838115.370902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1499223924410968</v>
+        <v>0.1346006788461735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02830257661855613</v>
+        <v>0.02731869105480895</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>87</v>
+      </c>
+      <c r="K4" t="n">
+        <v>174.9006193935067</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3002923969.454825</v>
+        <v>3192009402.5575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09425113253405139</v>
+        <v>0.09704547369295051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04525161496573855</v>
+        <v>0.03140684376210184</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86</v>
+      </c>
+      <c r="K5" t="n">
+        <v>112.8534275659818</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2836693932.887561</v>
+        <v>2837016070.884894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1460258425138172</v>
+        <v>0.09847943356644503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04230843390419484</v>
+        <v>0.04837675411333511</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2386464356.452407</v>
+        <v>2452609627.430448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06990982100775614</v>
+        <v>0.0684709241350375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03387397029919631</v>
+        <v>0.0365470968176144</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3466155096.493323</v>
+        <v>3253313841.106489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1628255119772926</v>
+        <v>0.2194008460421679</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02222243840207125</v>
+        <v>0.02128681739558456</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1870453476.356164</v>
+        <v>1938031371.839842</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1750548136910768</v>
+        <v>0.1659410314571635</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03515124014663918</v>
+        <v>0.02780738956532572</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4727928236.574761</v>
+        <v>4194365817.766941</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1348616233392312</v>
+        <v>0.2052815460708624</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03462951561003615</v>
+        <v>0.04072817681489437</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>81</v>
+      </c>
+      <c r="J10" t="n">
+        <v>87</v>
+      </c>
+      <c r="K10" t="n">
+        <v>194.2670756850169</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2889084120.071407</v>
+        <v>3005131951.814947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1812232431150477</v>
+        <v>0.1885792162783391</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03589391353184741</v>
+        <v>0.0469603002835348</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>84</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2246714744.953139</v>
+        <v>2323553929.447532</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1953441625224033</v>
+        <v>0.1381275460512617</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04881629080108417</v>
+        <v>0.05375214208621855</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4495796608.199601</v>
+        <v>5066985364.961964</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08637352452950159</v>
+        <v>0.06418615653409261</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02891339078566571</v>
+        <v>0.02735541689114549</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>86</v>
+      </c>
+      <c r="K13" t="n">
+        <v>169.0279335182017</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3875052880.966994</v>
+        <v>3210256921.6919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1397223303145039</v>
+        <v>0.1873962596410242</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0321001444385353</v>
+        <v>0.04191492671729991</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1770532171.157653</v>
+        <v>1335603596.530204</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07212595811850657</v>
+        <v>0.1051524683405323</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04313809632087091</v>
+        <v>0.03990313466522673</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1906760295.791332</v>
+        <v>2788094010.297455</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09979633266946135</v>
+        <v>0.08758258211900123</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03320282807913545</v>
+        <v>0.04161181828971687</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5277703150.037803</v>
+        <v>5270369714.28625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1635575061619548</v>
+        <v>0.1544021519956214</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04940349658596033</v>
+        <v>0.0384132455315912</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>86</v>
+      </c>
+      <c r="K17" t="n">
+        <v>155.2604616871282</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3580703795.694696</v>
+        <v>3833975735.334226</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1763939121260921</v>
+        <v>0.1807349139362845</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03307491147267663</v>
+        <v>0.02308292690784333</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>86</v>
+      </c>
+      <c r="K18" t="n">
+        <v>141.3057656177207</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1144414681.115234</v>
+        <v>1300089972.562578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1190520241187471</v>
+        <v>0.1788730265540451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02184216836239197</v>
+        <v>0.02653721108854886</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1143,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2651861311.448792</v>
+        <v>2461820580.773039</v>
       </c>
       <c r="F20" t="n">
-        <v>0.143233958172602</v>
+        <v>0.1496087393435601</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0311682794628377</v>
+        <v>0.02253223306707555</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2164242779.61443</v>
+        <v>1962155478.258922</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07584456730512577</v>
+        <v>0.07519199240892886</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03962745642090181</v>
+        <v>0.04254342303825846</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2708207462.386901</v>
+        <v>3693496949.722021</v>
       </c>
       <c r="F22" t="n">
-        <v>0.100407847073255</v>
+        <v>0.1265547597280502</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03976697118919967</v>
+        <v>0.05191596503891158</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1248,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1452815409.994476</v>
+        <v>1048532255.468345</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1573585678852654</v>
+        <v>0.1327965315214978</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05305396710202023</v>
+        <v>0.03952746659832922</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4071432725.062696</v>
+        <v>2573303654.6432</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1167094947486817</v>
+        <v>0.09382128282385881</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02909413149301672</v>
+        <v>0.03625149602263623</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1067926326.5451</v>
+        <v>1172889437.341666</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07589720236093124</v>
+        <v>0.08614814046557766</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02571909065037815</v>
+        <v>0.02992033925881279</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>876741074.311937</v>
+        <v>1431154347.754221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1202099151549186</v>
+        <v>0.12215191522792</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02634303333467226</v>
+        <v>0.03040039747653579</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4059626181.232566</v>
+        <v>3547831608.366036</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1069495122275358</v>
+        <v>0.1076973860961796</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02545766387308052</v>
+        <v>0.02024268543600257</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>34</v>
+      </c>
+      <c r="J27" t="n">
+        <v>87</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2674790856.32374</v>
+        <v>3298929688.500741</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1192214010458685</v>
+        <v>0.1215497153829531</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05011351613029753</v>
+        <v>0.03642805606067351</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5185271375.284823</v>
+        <v>5450313227.062819</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1090416283961668</v>
+        <v>0.09863210458882102</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04493480146282581</v>
+        <v>0.0404551943041378</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>81</v>
+      </c>
+      <c r="J29" t="n">
+        <v>87</v>
+      </c>
+      <c r="K29" t="n">
+        <v>204.0874419270495</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1722091083.538363</v>
+        <v>1536019768.969708</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1011087652607112</v>
+        <v>0.1143520531002331</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03651837382582836</v>
+        <v>0.03241218809433512</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>974801559.8654568</v>
+        <v>976988983.4971824</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0819384516015992</v>
+        <v>0.09180871876767958</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03504665945325466</v>
+        <v>0.03338712154817505</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1684317853.265229</v>
+        <v>1871843771.690228</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07926614158906524</v>
+        <v>0.0796722654994461</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03182129097572517</v>
+        <v>0.02655255856396451</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2140096310.313684</v>
+        <v>2317051397.11765</v>
       </c>
       <c r="F33" t="n">
-        <v>0.174714105172387</v>
+        <v>0.1914822783151094</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05587831841542262</v>
+        <v>0.0431091886276922</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1089378080.825856</v>
+        <v>1130197360.980934</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07348199005456583</v>
+        <v>0.08631418240073341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01748920818018801</v>
+        <v>0.02624573544071629</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>953272562.2861334</v>
+        <v>1305118814.353944</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07497642453340769</v>
+        <v>0.0827945010635566</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04387865278061423</v>
+        <v>0.02989765038272516</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,22 +1699,31 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2804144249.345712</v>
+        <v>2228251478.159739</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727959856048646</v>
+        <v>0.1451946041279299</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02306181423368743</v>
+        <v>0.01968219030305949</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="n">
+        <v>43.59934116397634</v>
       </c>
     </row>
     <row r="37">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2270703979.964232</v>
+        <v>2356692099.867094</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1002646510059695</v>
+        <v>0.07047890367269931</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03881208050251003</v>
+        <v>0.0298316580499285</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2203176104.972836</v>
+        <v>1663689146.2142</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1034614502934713</v>
+        <v>0.1175771644138571</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03544133000244461</v>
+        <v>0.03410654559829943</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1347624347.331051</v>
+        <v>1926490877.626454</v>
       </c>
       <c r="F39" t="n">
-        <v>0.128403325656965</v>
+        <v>0.1932227071282491</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02827419713121021</v>
+        <v>0.0325129782923945</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1259454009.641972</v>
+        <v>1689364596.157478</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1567217277770834</v>
+        <v>0.1301697212420539</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04253773806797139</v>
+        <v>0.03984790369700321</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2312985039.099778</v>
+        <v>2299483010.503737</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1316816003960549</v>
+        <v>0.1368187961911269</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03403776293760538</v>
+        <v>0.0463409317057201</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4258849654.402655</v>
+        <v>2922996825.675912</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08006314396713307</v>
+        <v>0.1088125798095826</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03932471538902719</v>
+        <v>0.03835522243975287</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>84</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2041935000.198971</v>
+        <v>2917945393.568167</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1495661285023903</v>
+        <v>0.1557223818811333</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0183991085553185</v>
+        <v>0.01670445103205159</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1523450697.463473</v>
+        <v>1781072059.577708</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07638734532657897</v>
+        <v>0.08524353994278977</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03578946748429265</v>
+        <v>0.02986149076796304</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2098585743.697193</v>
+        <v>1818067363.660786</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1428538356682716</v>
+        <v>0.1696186415401111</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05012675986559251</v>
+        <v>0.0468227084132533</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3652732012.915765</v>
+        <v>4164012712.6959</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1766553057080031</v>
+        <v>0.1684580488397939</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04904692919811177</v>
+        <v>0.06010246980172565</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>50</v>
+      </c>
+      <c r="J46" t="n">
+        <v>86</v>
+      </c>
+      <c r="K46" t="n">
+        <v>173.398106603193</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3172969197.758768</v>
+        <v>4955161957.183146</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1371914195225008</v>
+        <v>0.1653450203561578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05801315699677546</v>
+        <v>0.05667490771778463</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>39</v>
+      </c>
+      <c r="J47" t="n">
+        <v>87</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3038497213.444955</v>
+        <v>3046464739.433676</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07366810829649877</v>
+        <v>0.08843508493277105</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02997359681596354</v>
+        <v>0.03114410066147311</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>85</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1406768743.871257</v>
+        <v>1655556848.69097</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1650984206066446</v>
+        <v>0.19123912475916</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0376939230260097</v>
+        <v>0.03414634429749516</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3721753126.5022</v>
+        <v>3824991775.333344</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1084151905505792</v>
+        <v>0.1373144010699498</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05170109886771071</v>
+        <v>0.0368455669054367</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>87</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1256277485.594964</v>
+        <v>1205952022.523767</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1884252433586847</v>
+        <v>0.1746618242125129</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03487757916535854</v>
+        <v>0.03633597150559589</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4911934917.216578</v>
+        <v>3827302310.361809</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1319067442208861</v>
+        <v>0.08904538604315228</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05702442688541572</v>
+        <v>0.04862644597812962</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67</v>
+      </c>
+      <c r="J52" t="n">
+        <v>86</v>
+      </c>
+      <c r="K52" t="n">
+        <v>154.4624153635436</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2413077773.062708</v>
+        <v>3015589339.64506</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1370705444974124</v>
+        <v>0.1454877023501182</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02410780710702299</v>
+        <v>0.02529615781031271</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4887992033.098438</v>
+        <v>3443964344.630356</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1687061402497022</v>
+        <v>0.151308991856544</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05174425350510634</v>
+        <v>0.04349766266295821</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>39</v>
+      </c>
+      <c r="J54" t="n">
+        <v>85</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3400951780.745141</v>
+        <v>4479723597.866302</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2177842422616789</v>
+        <v>0.2199199709197858</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03120533645883323</v>
+        <v>0.02855773752420679</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>39</v>
+      </c>
+      <c r="J55" t="n">
+        <v>87</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1416141931.304343</v>
+        <v>1751175497.605673</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1246203897764408</v>
+        <v>0.1353837988151897</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03515569455567718</v>
+        <v>0.0507257239331601</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4086281596.023818</v>
+        <v>4549267964.393515</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1453179400531449</v>
+        <v>0.1662673069106615</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02296561392900056</v>
+        <v>0.02744263150034472</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>87</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1665690836.569566</v>
+        <v>1762235211.346407</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1747364377436972</v>
+        <v>0.1935339711616922</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03824763110503288</v>
+        <v>0.02856689980542867</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2516,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4927409786.927198</v>
+        <v>3709151874.636137</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1170662475865628</v>
+        <v>0.09125267387822014</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04503982477853258</v>
+        <v>0.04624128315394252</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>42</v>
+      </c>
+      <c r="J59" t="n">
+        <v>87</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3396002459.250269</v>
+        <v>3766523156.809806</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1608703005343967</v>
+        <v>0.1786800155248381</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02417457905508881</v>
+        <v>0.02292294037263965</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2865739634.391626</v>
+        <v>2055450429.408356</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1698589857815042</v>
+        <v>0.1764573877438282</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02918667228919162</v>
+        <v>0.02124729916822865</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2033395998.370653</v>
+        <v>1947226656.351849</v>
       </c>
       <c r="F62" t="n">
-        <v>0.128084087960023</v>
+        <v>0.1355502332067898</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04185767705213063</v>
+        <v>0.03982161352414206</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4573253928.895573</v>
+        <v>5156006545.733517</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1046923934696833</v>
+        <v>0.09328466591777883</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04224372945152152</v>
+        <v>0.03322286250460427</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>43</v>
+      </c>
+      <c r="J63" t="n">
+        <v>86</v>
+      </c>
+      <c r="K63" t="n">
+        <v>160.1739025720026</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3885412483.498576</v>
+        <v>4451787168.789821</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695521136338162</v>
+        <v>0.1499250815935916</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0243624534036028</v>
+        <v>0.02699420867041323</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>43</v>
+      </c>
+      <c r="J64" t="n">
+        <v>86</v>
+      </c>
+      <c r="K64" t="n">
+        <v>165.8673377154289</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4459724811.071737</v>
+        <v>4338740998.739315</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1670297077636965</v>
+        <v>0.123373709838263</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03222749959797962</v>
+        <v>0.02218302871916731</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>69</v>
+      </c>
+      <c r="J65" t="n">
+        <v>87</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4729150982.327166</v>
+        <v>4337260721.132766</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1180236557455278</v>
+        <v>0.1473190229383461</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04702482630080952</v>
+        <v>0.03295085429962049</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>43</v>
+      </c>
+      <c r="J66" t="n">
+        <v>86</v>
+      </c>
+      <c r="K66" t="n">
+        <v>166.0157434818105</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3112890134.147428</v>
+        <v>3176393856.979524</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08605146436193062</v>
+        <v>0.09175279793445973</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03639873958948143</v>
+        <v>0.04513601431537072</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5230185591.67123</v>
+        <v>5867093672.462954</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1051509457374217</v>
+        <v>0.159285634842622</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04157307813447621</v>
+        <v>0.04381631678877686</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>43</v>
+      </c>
+      <c r="J68" t="n">
+        <v>87</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1568766849.118071</v>
+        <v>1907462839.033194</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1355064137471605</v>
+        <v>0.1652834372158368</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04533728916739364</v>
+        <v>0.04304819657998121</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2776377654.015405</v>
+        <v>3312040026.67927</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08126503519951109</v>
+        <v>0.100943361107449</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04495957303539224</v>
+        <v>0.03820785726404594</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3443001950.293993</v>
+        <v>4111409562.851325</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1722019043793858</v>
+        <v>0.1857935229102191</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0229542753600673</v>
+        <v>0.03340985561217132</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>72</v>
+      </c>
+      <c r="J71" t="n">
+        <v>87</v>
+      </c>
+      <c r="K71" t="n">
+        <v>175.9786878811857</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1650780422.686906</v>
+        <v>1974952685.544483</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07884137828739099</v>
+        <v>0.07581169713141396</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05101853883372951</v>
+        <v>0.03514483530378413</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2169608712.099997</v>
+        <v>2916848140.543955</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09447210290698103</v>
+        <v>0.08795036952459331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04462715026660164</v>
+        <v>0.0374920426509513</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3098480876.114623</v>
+        <v>3153672465.425762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.15124638244718</v>
+        <v>0.1347646341353425</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02282828104703489</v>
+        <v>0.03365760390584865</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>86</v>
+      </c>
+      <c r="K74" t="n">
+        <v>100.1644519702582</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2075140970.622584</v>
+        <v>2040879304.869205</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1127869427236097</v>
+        <v>0.1006046454356566</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03542560871297194</v>
+        <v>0.02489040450052711</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3407917313.726188</v>
+        <v>4515676742.122756</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09457569244956572</v>
+        <v>0.09777668385320473</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03303205113582253</v>
+        <v>0.02560391522374963</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>40</v>
+      </c>
+      <c r="J76" t="n">
+        <v>86</v>
+      </c>
+      <c r="K76" t="n">
+        <v>142.2215048154297</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2147765459.377549</v>
+        <v>1967222128.138539</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1509249350412118</v>
+        <v>0.1450358708324088</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0249318318059678</v>
+        <v>0.02593977077515518</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4513377324.41651</v>
+        <v>4206969444.03397</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09987782989727051</v>
+        <v>0.09336843823015863</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04254705822106724</v>
+        <v>0.04026105611248282</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>41</v>
+      </c>
+      <c r="J78" t="n">
+        <v>87</v>
+      </c>
+      <c r="K78" t="n">
+        <v>183.0139454951866</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1751854029.13721</v>
+        <v>1848607776.054539</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1468712164995337</v>
+        <v>0.1474514356970116</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02767716864745692</v>
+        <v>0.02997968481230155</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5379268082.09287</v>
+        <v>3801160529.330534</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08848716151076542</v>
+        <v>0.1105600114241313</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03744637138769392</v>
+        <v>0.03052177463360144</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>41</v>
+      </c>
+      <c r="J80" t="n">
+        <v>87</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4318239898.498896</v>
+        <v>3573804151.032661</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1016571481235901</v>
+        <v>0.1201819791386913</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02711496294539157</v>
+        <v>0.03095594382524332</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>39</v>
+      </c>
+      <c r="J81" t="n">
+        <v>87</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5282060155.484435</v>
+        <v>4817388960.081531</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2140279305891334</v>
+        <v>0.1752595797749328</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0183911069702922</v>
+        <v>0.02790682628199194</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>55</v>
+      </c>
+      <c r="J82" t="n">
+        <v>87</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1621663578.573819</v>
+        <v>2056156193.08427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1023624213116317</v>
+        <v>0.1170720471453591</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03179913925525062</v>
+        <v>0.03933410424826694</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2196418897.089252</v>
+        <v>2222827094.193164</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1012165442714125</v>
+        <v>0.101335603329027</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03883226829851056</v>
+        <v>0.04342025256963388</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2615582568.144549</v>
+        <v>3383060705.667928</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1733044082007492</v>
+        <v>0.1575131584354401</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05324868053003046</v>
+        <v>0.03634429276906431</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>80</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2128162353.750309</v>
+        <v>2805214375.028988</v>
       </c>
       <c r="F86" t="n">
-        <v>0.139039319769304</v>
+        <v>0.115196802076473</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02721320180287953</v>
+        <v>0.02179894257413366</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1040909028.525463</v>
+        <v>1415180338.275425</v>
       </c>
       <c r="F87" t="n">
-        <v>0.172346405980619</v>
+        <v>0.1798429833240029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04325854977254305</v>
+        <v>0.04416462062251302</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3077437304.724597</v>
+        <v>3635687606.955599</v>
       </c>
       <c r="F88" t="n">
-        <v>0.144460724966352</v>
+        <v>0.1365692277649722</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03854222656218679</v>
+        <v>0.03659272850467149</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="n">
+        <v>140.6613805967702</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3122137512.071397</v>
+        <v>3212253222.531634</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1474562698289256</v>
+        <v>0.1405353885910694</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03898713666231971</v>
+        <v>0.02894125638497295</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2026091603.762715</v>
+        <v>1856697282.964176</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1219090966420547</v>
+        <v>0.08566006546957768</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04345003158138339</v>
+        <v>0.04458659349285707</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1794053439.724059</v>
+        <v>1991055110.215756</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1738108476289751</v>
+        <v>0.1684077639297883</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04276799876400553</v>
+        <v>0.04914352823888995</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2583099872.826118</v>
+        <v>1935533421.583998</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06876535769572314</v>
+        <v>0.1093662819488313</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03840656563456744</v>
+        <v>0.04578978176921106</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3844031083.28023</v>
+        <v>3662735667.718942</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0870759337526584</v>
+        <v>0.09940379602904295</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03361800959950226</v>
+        <v>0.05337870070622983</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>39</v>
+      </c>
+      <c r="J93" t="n">
+        <v>87</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2011812230.488922</v>
+        <v>1674463260.003795</v>
       </c>
       <c r="F94" t="n">
-        <v>0.145894803016427</v>
+        <v>0.1058321547453109</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02657389002696715</v>
+        <v>0.03908027450900655</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3230092852.528423</v>
+        <v>2498745009.950231</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1003164985518448</v>
+        <v>0.1355675342509717</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0486695307022605</v>
+        <v>0.04733689753632515</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1463134096.899265</v>
+        <v>1995687661.299683</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1327919839407532</v>
+        <v>0.1220384204644647</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03401301077333176</v>
+        <v>0.03539068160703554</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3396868994.711811</v>
+        <v>4690453656.939983</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1488176995252804</v>
+        <v>0.1166651829619389</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02153145515133079</v>
+        <v>0.01810746889684452</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>41</v>
+      </c>
+      <c r="J97" t="n">
+        <v>87</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3416036725.88277</v>
+        <v>2774367865.276902</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1143549184455983</v>
+        <v>0.08760569419723355</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03042910236343935</v>
+        <v>0.03092239877185901</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>86</v>
+      </c>
+      <c r="K98" t="n">
+        <v>67.97766120044091</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2189358556.199234</v>
+        <v>2483420995.198121</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1153142027261894</v>
+        <v>0.1451255351684105</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02649647592242478</v>
+        <v>0.02492314710885235</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3397092459.469776</v>
+        <v>3293887654.269144</v>
       </c>
       <c r="F100" t="n">
-        <v>0.17811206890862</v>
+        <v>0.1710441298970951</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02564996493960645</v>
+        <v>0.02385293145946405</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>35</v>
+      </c>
+      <c r="J100" t="n">
+        <v>86</v>
+      </c>
+      <c r="K100" t="n">
+        <v>101.2378508822531</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2919687248.834485</v>
+        <v>2532600602.947177</v>
       </c>
       <c r="F101" t="n">
-        <v>0.15739569271342</v>
+        <v>0.1411311085209014</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03906425916343948</v>
+        <v>0.04141621208575353</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
